--- a/いろいろ/DB設計.Ver2.xlsx
+++ b/いろいろ/DB設計.Ver2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="170">
   <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
@@ -770,10 +770,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FKLikes_postID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK_likes_replyID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,15 +800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PK_Action_followID</t>
-  </si>
-  <si>
-    <t>FK_Action_ActionerManagementID</t>
-  </si>
-  <si>
-    <t>FK_Action_ActionersManagementID</t>
-  </si>
-  <si>
     <t>NN_Action_state</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -876,6 +863,44 @@
     <rPh sb="13" eb="15">
       <t>ハンゴロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空文字</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK_Likes_postID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(15)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(15)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK_Action_actionID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK_Action_activeManagementID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK_Action_passiveManagementID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1572,8 +1597,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1765,7 +1790,7 @@
         <v>131</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
@@ -1990,7 +2015,9 @@
       <c r="E27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
@@ -2063,61 +2090,59 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
@@ -2144,7 +2169,7 @@
         <v>110</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>111</v>
@@ -2155,9 +2180,7 @@
       <c r="E38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="16" t="s">
@@ -2195,9 +2218,7 @@
       <c r="E40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
+      <c r="F40" s="11"/>
     </row>
     <row r="42" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -2232,19 +2253,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="F45" s="4"/>
     </row>
@@ -2277,7 +2298,7 @@
         <v>97</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>26</v>
@@ -2289,20 +2310,18 @@
         <v>136</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="7">
-        <v>1</v>
-      </c>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
@@ -2324,14 +2343,14 @@
     </row>
     <row r="51" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="52" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="12" t="s">
@@ -2355,16 +2374,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>134</v>
@@ -2376,13 +2395,13 @@
         <v>126</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>127</v>
@@ -2394,61 +2413,61 @@
         <v>128</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>129</v>
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>156</v>
+      <c r="F58" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2456,7 +2475,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
       <c r="G61" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2484,13 +2503,13 @@
         <v>120</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>34</v>
@@ -2502,13 +2521,13 @@
         <v>121</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>35</v>
